--- a/tasks/task_stats_base.xlsx
+++ b/tasks/task_stats_base.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="50">
   <si>
     <t>width_flt</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -114,14 +114,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>aimRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aimRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fifty</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -158,10 +150,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>absMean</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bite</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -211,6 +199,26 @@
   </si>
   <si>
     <t>average</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aimrate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aimrate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aimrate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>absmean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aimrate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -702,8 +710,8 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -734,7 +742,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -763,7 +771,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
@@ -779,18 +787,18 @@
         <v>10</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
@@ -803,21 +811,21 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -830,21 +838,21 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -860,7 +868,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -871,7 +879,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -884,21 +892,21 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -911,21 +919,21 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -938,21 +946,21 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -968,18 +976,18 @@
         <v>10</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -992,21 +1000,21 @@
         <v>20</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1019,21 +1027,21 @@
         <v>32</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1046,21 +1054,21 @@
         <v>32</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1076,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1084,10 +1092,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -1100,10 +1108,10 @@
         <v>32</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1114,7 +1122,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
@@ -1127,7 +1135,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>9</v>
@@ -1138,10 +1146,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D16" s="5">
         <v>0</v>
@@ -1154,7 +1162,7 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>9</v>
@@ -1168,7 +1176,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D17" s="5">
         <v>0</v>
@@ -1181,7 +1189,7 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>9</v>
@@ -1195,7 +1203,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D18" s="5">
         <v>0</v>
@@ -1219,20 +1227,20 @@
         <v>1</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1240,10 +1248,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6">
         <v>0</v>
@@ -1259,7 +1267,7 @@
         <v>10</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1267,10 +1275,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -1285,34 +1293,34 @@
     </row>
     <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D23" s="7">
         <v>0</v>
@@ -1325,21 +1333,21 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D24" s="7">
         <v>0</v>
@@ -1352,21 +1360,21 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D25" s="7">
         <v>0</v>
@@ -1379,7 +1387,7 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>3</v>
@@ -1387,13 +1395,13 @@
     </row>
     <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7">
         <v>0</v>
@@ -1406,21 +1414,21 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D27" s="7">
         <v>0</v>
@@ -1433,21 +1441,21 @@
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D28" s="7">
         <v>0</v>
@@ -1460,21 +1468,21 @@
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D29" s="7">
         <v>0</v>
@@ -1487,21 +1495,21 @@
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D30" s="7">
         <v>0</v>
@@ -1514,21 +1522,21 @@
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D31" s="7">
         <v>0</v>
@@ -1541,10 +1549,10 @@
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
       <c r="J31" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1552,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D32" s="7">
         <v>0</v>
@@ -1568,7 +1576,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>3</v>
@@ -1576,13 +1584,13 @@
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D33" s="7">
         <v>0</v>
@@ -1595,21 +1603,21 @@
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D34" s="7">
         <v>0</v>
@@ -1625,18 +1633,18 @@
         <v>11</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D35" s="7">
         <v>0</v>
@@ -1657,13 +1665,13 @@
     </row>
     <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D36" s="7">
         <v>0</v>
@@ -1679,18 +1687,18 @@
         <v>11</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D37" s="7">
         <v>0</v>
@@ -1703,21 +1711,21 @@
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D38" s="7">
         <v>0</v>
@@ -1730,24 +1738,24 @@
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
       <c r="J38" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E39" s="20">
         <v>20</v>
@@ -1757,10 +1765,10 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
